--- a/data/raw/Data Katarina 2016.xlsx
+++ b/data/raw/Data Katarina 2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2980106-0D53-4F7D-8F96-307A523A3DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A624CE6-1449-459B-8BAB-271E0EC56837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="10428" windowHeight="13056" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,125 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Maltaa</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Forest Volume</t>
+  </si>
+  <si>
+    <t>Model Volume</t>
+  </si>
+  <si>
+    <t>Model Age</t>
+  </si>
+  <si>
+    <t>Average Age</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Real Increment</t>
+  </si>
+  <si>
+    <t>Model Increment</t>
+  </si>
+  <si>
+    <t>Forest Area</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -402,12 +522,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBC2FFC-A98F-4F4C-A84C-226E0F1969B2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5520000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1">
+        <v>292</v>
+      </c>
+      <c r="H2" s="1">
+        <v>292</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3851</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.35E-4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.3269999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1">
+        <v>248</v>
+      </c>
+      <c r="H3" s="1">
+        <v>192</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>678</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.37E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1">
+        <v>167</v>
+      </c>
+      <c r="H4" s="1">
+        <v>167</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3927</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1">
+        <v>151</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="K5" s="1">
+        <v>173</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.7880000000000001E-4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.5045000000000001E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1">
+        <v>290</v>
+      </c>
+      <c r="H6" s="1">
+        <v>290</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2657</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.5699999999999999E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.3709999999999997E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1">
+        <v>193</v>
+      </c>
+      <c r="H7" s="1">
+        <v>193</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="K7" s="1">
+        <v>587</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.8999999999999999E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1289999999999998E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1">
+        <v>200</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2203</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.9850000000000001E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.5810000000000001E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>22084</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.6699999999999998E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.6555E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1">
+        <v>162</v>
+      </c>
+      <c r="H10" s="1">
+        <v>162</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>15954</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.638E-4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.4479999999999998E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1">
+        <v>315</v>
+      </c>
+      <c r="H11" s="1">
+        <v>315</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>11076</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1">
+        <v>151</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3903</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.9100000000000001E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.3222000000000002E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1">
+        <v>174</v>
+      </c>
+      <c r="H13" s="1">
+        <v>174</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2039</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.3329999999999999E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.3189999999999999E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+      <c r="H14" s="1">
+        <v>132</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+      <c r="K14" s="1">
+        <v>738</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>151</v>
+      </c>
+      <c r="H15" s="1">
+        <v>151</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9149</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.7900000000000001E-4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.8660000000000001E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1">
+        <v>189</v>
+      </c>
+      <c r="H16" s="1">
+        <v>189</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3354</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.877E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1">
+        <v>221</v>
+      </c>
+      <c r="H17" s="1">
+        <v>221</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2165</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.3440000000000003E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.8263999999999999E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>89</v>
+      </c>
+      <c r="F18" s="1">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1">
+        <v>299</v>
+      </c>
+      <c r="H18" s="1">
+        <v>299</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="K18" s="1">
+        <v>87</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.14E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.6769999999999999E-2</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1">
+        <v>151</v>
+      </c>
+      <c r="H19" s="1">
+        <v>151</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.3329999999999999E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.3189999999999999E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1">
+        <v>192</v>
+      </c>
+      <c r="H20" s="1">
+        <v>192</v>
+      </c>
+      <c r="I20" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>365</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.7349999999999998E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.8510000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>54</v>
+      </c>
+      <c r="F21" s="1">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1">
+        <v>247</v>
+      </c>
+      <c r="H21" s="1">
+        <v>247</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9319</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.1969999999999998E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1">
+        <v>27</v>
+      </c>
+      <c r="G22" s="1">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1">
+        <v>53</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3437</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.6129999999999999E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.4834999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1">
+        <v>58</v>
+      </c>
+      <c r="G23" s="1">
+        <v>212</v>
+      </c>
+      <c r="H23" s="1">
+        <v>212</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="K23" s="1">
+        <v>6391</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.2299999999999994E-5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.1458999999999999E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1">
+        <v>189</v>
+      </c>
+      <c r="H24" s="1">
+        <v>189</v>
+      </c>
+      <c r="I24" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2713</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.4599999999999999E-5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.8724999999999999E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1">
+        <v>301</v>
+      </c>
+      <c r="H25" s="1">
+        <v>301</v>
+      </c>
+      <c r="I25" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1243</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.9500000000000001E-4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.1419999999999997E-2</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>27</v>
+      </c>
+      <c r="G26" s="1">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>18173</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>5.8350000000000002E-5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.8849999999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>59</v>
+      </c>
+      <c r="F27" s="1">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1">
+        <v>113</v>
+      </c>
+      <c r="H27" s="1">
+        <v>113</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K27" s="1">
+        <v>28605</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.35E-4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.3269999999999999E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1">
+        <v>132</v>
+      </c>
+      <c r="H28" s="1">
+        <v>132</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="J28" s="1">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2881</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/Data Katarina 2016.xlsx
+++ b/data/raw/Data Katarina 2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8257F1E4-AAC5-4B26-BFFA-9DE2A4C6DAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA730AF-5DF7-4633-A206-EC799B73F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="600" windowWidth="17280" windowHeight="9420" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/Data Katarina 2016.xlsx
+++ b/data/raw/Data Katarina 2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA730AF-5DF7-4633-A206-EC799B73F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80020E6C-7CBC-4C6D-856F-90E162200ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Czech</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Maltaa</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>Real Volume</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Malta</t>
   </si>
 </sst>
 </file>
@@ -524,44 +524,44 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1.35E-4</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>2.14E-4</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1.7880000000000001E-4</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>5.5699999999999999E-4</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>3.8999999999999999E-4</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2.9850000000000001E-5</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>3.6699999999999998E-5</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1.638E-4</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>2.14E-4</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>4.9100000000000001E-4</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1.3329999999999999E-4</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>2.14E-4</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2.7900000000000001E-4</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>2.8299999999999999E-4</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>5.3440000000000003E-5</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>2.14E-4</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>1.3329999999999999E-4</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>2.7349999999999998E-4</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>4.2200000000000001E-4</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
         <v>1.6129999999999999E-4</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>9.2299999999999994E-5</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>5.4599999999999999E-5</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>3.9500000000000001E-4</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>5.8350000000000002E-5</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>1.35E-4</v>
@@ -1489,6 +1489,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+    <sortCondition ref="A3:A28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw/Data Katarina 2016.xlsx
+++ b/data/raw/Data Katarina 2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikae\Documents\Aarhus Internship\model\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80020E6C-7CBC-4C6D-856F-90E162200ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A077CE-297C-464F-BB1E-5366DD29E297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD12E787-98FB-49ED-911F-F9C206ABC0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
